--- a/Proyectos/Mario_BisecciónTemporal/todos los dias completo.xlsx
+++ b/Proyectos/Mario_BisecciónTemporal/todos los dias completo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Proyectos\Mario_BisecciónTemporal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Proyectos\Mario_BisecciónTemporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="suj 4" sheetId="1" r:id="rId1"/>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8590,8 +8590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -9663,7 +9663,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -9926,7 +9926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
